--- a/dados/dados_documentos.xlsx
+++ b/dados/dados_documentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorContratos\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\AutomatizadorDocumentos\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06DF444-03D6-47C7-976B-65001319F57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECD0141-6DA9-4980-9B2D-81E6CBDD984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="5070" windowWidth="15375" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>SSP/MG</t>
-  </si>
-  <si>
-    <t>batatinha</t>
   </si>
 </sst>
 </file>
@@ -585,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,11 +890,6 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
